--- a/householdinfo/HouseholdCompExamples.xlsx
+++ b/householdinfo/HouseholdCompExamples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\G2 Classes\MIT15.053\project\optimization-project\householdinfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadedecoimbra154-my.sharepoint.com/personal/uc2015236538_student_uc_pt/Documents/1_PhD/1.1_2nd_year/12_inMIT_Work/15.053/Group Project/GitHub2_Mac/Untitled/optimization-project/householdinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57ACD03-06E8-45B9-826B-5BF1C4ECA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A57ACD03-06E8-45B9-826B-5BF1C4ECA787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E62E3C8-6D11-C64F-BFFC-D0D869B6D6D5}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="162" windowWidth="21600" windowHeight="11460" activeTab="3" xr2:uid="{570E02EB-BCFB-4922-B707-C661BABF776C}"/>
+    <workbookView xWindow="40" yWindow="760" windowWidth="21600" windowHeight="11460" activeTab="3" xr2:uid="{570E02EB-BCFB-4922-B707-C661BABF776C}"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Member 1</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Young couple with no children example</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -468,17 +471,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.3671875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -511,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -522,7 +525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -533,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -544,7 +547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -569,14 +572,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -587,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -598,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -609,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -634,14 +637,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -652,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -673,17 +676,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -694,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -705,12 +708,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
